--- a/df_2/df_2_5.xlsx
+++ b/df_2/df_2_5.xlsx
@@ -668,392 +668,392 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.4601 %</t>
+          <t>0,4601</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.9567 %</t>
+          <t>0,9567</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.3315 %</t>
+          <t>1,3315</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.4471 %</t>
+          <t>1,4471</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.1385 %</t>
+          <t>1,1385</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5238 %</t>
+          <t>1,5238</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.3137 %</t>
+          <t>1,3137</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.1766 %</t>
+          <t>1,1766</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.1898 %</t>
+          <t>1,1898</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1.223 %</t>
+          <t>1,223</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.1052 %</t>
+          <t>1,1052</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.3609 %</t>
+          <t>1,3609</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1.7897 %</t>
+          <t>1,7897</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.792 %</t>
+          <t>1,792</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.3286 %</t>
+          <t>2,3286</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1.7774 %</t>
+          <t>1,7774</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.5935 %</t>
+          <t>1,5935</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.2995 %</t>
+          <t>1,2995</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.5006 %</t>
+          <t>1,5006</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.6103 %</t>
+          <t>1,6103</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1.9824 %</t>
+          <t>1,9824</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1.6857 %</t>
+          <t>1,6857</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1.8565 %</t>
+          <t>1,8565</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2.2205 %</t>
+          <t>2,2205</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>1.9077 %</t>
+          <t>1,9077</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2.1832 %</t>
+          <t>2,1832</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1.7491 %</t>
+          <t>1,7491</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>1.7399 %</t>
+          <t>1,7399</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1.7577 %</t>
+          <t>1,7577</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>1.8352 %</t>
+          <t>1,8352</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2.2228 %</t>
+          <t>2,2228</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.9533 %</t>
+          <t>1,9533</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>2.0388 %</t>
+          <t>2,0388</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.173 %</t>
+          <t>2,173</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>1.3078 %</t>
+          <t>1,3078</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>1.1545 %</t>
+          <t>1,1545</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>1.3865 %</t>
+          <t>1,3865</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1.4634 %</t>
+          <t>1,4634</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1.5034 %</t>
+          <t>1,5034</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1.0956 %</t>
+          <t>1,0956</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1.5382 %</t>
+          <t>1,5382</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>1.7126 %</t>
+          <t>1,7126</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>1.5436 %</t>
+          <t>1,5436</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1.3234 %</t>
+          <t>1,3234</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>1.382 %</t>
+          <t>1,382</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>1.6424 %</t>
+          <t>1,6424</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>1.4954 %</t>
+          <t>1,4954</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>1.9287 %</t>
+          <t>1,9287</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1.3392 %</t>
+          <t>1,3392</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>1.2833 %</t>
+          <t>1,2833</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>1.1747 %</t>
+          <t>1,1747</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>1.1334 %</t>
+          <t>1,1334</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>1.4515 %</t>
+          <t>1,4515</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.9123 %</t>
+          <t>0,9123</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>1.1884 %</t>
+          <t>1,1884</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.9895 %</t>
+          <t>0,9895</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1.1908 %</t>
+          <t>1,1908</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>1.0532 %</t>
+          <t>1,0532</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>1.4426 %</t>
+          <t>1,4426</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.9754 %</t>
+          <t>0,9754</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>1.4514 %</t>
+          <t>1,4514</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>1.2979 %</t>
+          <t>1,2979</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>1.2798 %</t>
+          <t>1,2798</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>1.379 %</t>
+          <t>1,379</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>1.5718 %</t>
+          <t>1,5718</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>1.5852 %</t>
+          <t>1,5852</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>1.199 %</t>
+          <t>1,199</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>1.0774 %</t>
+          <t>1,0774</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>1.1647 %</t>
+          <t>1,1647</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>1.7122 %</t>
+          <t>1,7122</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>1.1778 %</t>
+          <t>1,1778</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.8637 %</t>
+          <t>0,8637</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>1.2112 %</t>
+          <t>1,2112</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>1.2833 %</t>
+          <t>1,2833</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t>1.2899 %</t>
+          <t>1,2899</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
         <is>
-          <t>1.2128 %</t>
+          <t>1,2128</t>
         </is>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t>0.4735 %</t>
+          <t>0,4735</t>
         </is>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>0.0 %</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1065,242 +1065,242 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.9564 %</t>
+          <t>0,9564</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7055 %</t>
+          <t>0,7055</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.4754 %</t>
+          <t>0,4754</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.4297 %</t>
+          <t>0,4297</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.4607 %</t>
+          <t>0,4607</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4587 %</t>
+          <t>0,4587</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.6453 %</t>
+          <t>0,6453</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5445 %</t>
+          <t>0,5445</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.5347 %</t>
+          <t>0,5347</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.6526 %</t>
+          <t>0,6526</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.6486 %</t>
+          <t>0,6486</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.5163 %</t>
+          <t>0,5163</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.6273 %</t>
+          <t>0,6273</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.0535 %</t>
+          <t>1,0535</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.2944 %</t>
+          <t>1,2944</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.5862 %</t>
+          <t>1,5862</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.1638 %</t>
+          <t>1,1638</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.0385 %</t>
+          <t>1,0385</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.7543 %</t>
+          <t>0,7543</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.702 %</t>
+          <t>0,702</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.7003 %</t>
+          <t>0,7003</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0.5764 %</t>
+          <t>0,5764</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.6741 %</t>
+          <t>0,6741</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0.6544 %</t>
+          <t>0,6544</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>0.706 %</t>
+          <t>0,706</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.6396 %</t>
+          <t>0,6396</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>0.6652 %</t>
+          <t>0,6652</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>0.7742 %</t>
+          <t>0,7742</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.9171 %</t>
+          <t>0,9171</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.6626 %</t>
+          <t>0,6626</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1.2934 %</t>
+          <t>1,2934</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.6654 %</t>
+          <t>0,6654</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.6174 %</t>
+          <t>0,6174</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.6727 %</t>
+          <t>0,6727</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1.4708 %</t>
+          <t>1,4708</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.5881 %</t>
+          <t>0,5881</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.5704 %</t>
+          <t>0,5704</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.5972 %</t>
+          <t>0,5972</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.5164 %</t>
+          <t>0,5164</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.7318 %</t>
+          <t>0,7318</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.6297 %</t>
+          <t>0,6297</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.5254 %</t>
+          <t>0,5254</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.4703 %</t>
+          <t>0,4703</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.5717 %</t>
+          <t>0,5717</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.5647 %</t>
+          <t>0,5647</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>0.4461 %</t>
+          <t>0,4461</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>0.8424 %</t>
+          <t>0,8424</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1.5937 %</t>
+          <t>1,5937</t>
         </is>
       </c>
     </row>
@@ -1312,247 +1312,247 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.8856 %</t>
+          <t>5,8856</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.1749 %</t>
+          <t>1,1749</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6153 %</t>
+          <t>0,6153</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.3146 %</t>
+          <t>0,3146</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.2844 %</t>
+          <t>0,2844</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3073 %</t>
+          <t>0,3073</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.3332 %</t>
+          <t>0,3332</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.3833 %</t>
+          <t>0,3833</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.4355 %</t>
+          <t>0,4355</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.4963 %</t>
+          <t>0,4963</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.4821 %</t>
+          <t>0,4821</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.5922 %</t>
+          <t>0,5922</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.5599 %</t>
+          <t>0,5599</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.522 %</t>
+          <t>0,522</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.5411 %</t>
+          <t>0,5411</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.848 %</t>
+          <t>0,848</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.8807 %</t>
+          <t>0,8807</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.9669 %</t>
+          <t>0,9669</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.9476 %</t>
+          <t>0,9476</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.8684 %</t>
+          <t>0,8684</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.7833 %</t>
+          <t>0,7833</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.752 %</t>
+          <t>0,752</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.6127 %</t>
+          <t>0,6127</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.6866 %</t>
+          <t>0,6866</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.7265 %</t>
+          <t>0,7265</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.7607 %</t>
+          <t>0,7607</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.803 %</t>
+          <t>0,803</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.7808 %</t>
+          <t>0,7808</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.7513 %</t>
+          <t>0,7513</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.752 %</t>
+          <t>0,752</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.8381 %</t>
+          <t>0,8381</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1.0974 %</t>
+          <t>1,0974</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1.0857 %</t>
+          <t>1,0857</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.0625 %</t>
+          <t>1,0625</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>1.1946 %</t>
+          <t>1,1946</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1.6731 %</t>
+          <t>1,6731</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2.7825 %</t>
+          <t>2,7825</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>5.8563 %</t>
+          <t>5,8563</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>8.2989 %</t>
+          <t>8,2989</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>7.9506 %</t>
+          <t>7,9506</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>9.0244 %</t>
+          <t>9,0244</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>7.7662 %</t>
+          <t>7,7662</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>7.8439 %</t>
+          <t>7,8439</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>9.0294 %</t>
+          <t>9,0294</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>9.502 %</t>
+          <t>9,502</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>11.1164 %</t>
+          <t>11,1164</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>8.0817 %</t>
+          <t>8,0817</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>8.0174 %</t>
+          <t>8,0174</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>6.4763 %</t>
+          <t>6,4763</t>
         </is>
       </c>
     </row>
